--- a/Управление двигателем/Скорость резольвера.xlsx
+++ b/Управление двигателем/Скорость резольвера.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="45" windowWidth="23760" windowHeight="10560" activeTab="1"/>
+    <workbookView xWindow="1125" yWindow="45" windowWidth="23760" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="resolver+AMC" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>Привод NGV (nozzle guide van – сопловые направляющие аппараты)</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Резольвер однополюсный.</t>
+  </si>
+  <si>
+    <t>об/мин</t>
   </si>
 </sst>
 </file>
@@ -638,15 +641,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.7109375" style="5" customWidth="1"/>
     <col min="2" max="2" width="7.140625" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="47.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="34.7109375" style="5" customWidth="1"/>
   </cols>
@@ -759,6 +762,9 @@
       <c r="B20">
         <f>B19*60</f>
         <v>15000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>9</v>
@@ -832,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
